--- a/DateBase/orders/Nha Thu_2026-1-25.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-25.xlsx
@@ -524,6 +524,9 @@
       <c r="C11" t="str">
         <v>595_玉兰叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -585,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016143010520109150</v>
+        <v>0161430105201091515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-25.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,9 +528,89 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>200_粉佳人_Nirvana_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -588,7 +668,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161430105201091515</v>
+        <v>01614301052010915152020201515101520100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-25.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-25.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01614301052010915152020201515101520100</v>
+        <v>01614301052010915152020201515101520103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-25.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,12 +608,82 @@
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>200_粉佳人_Nirvana_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>406_千鸟飞燕 白_larkspur white_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>500_千鸟飞燕 粉_larkspur pink_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>407_千鸟飞燕 紫_larkspur purple_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <v>869_中国腊梅_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L29"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +741,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01614301052010915152020201515101520103</v>
+        <v>01614301052010915152020201515101520103020101055555</v>
       </c>
     </row>
   </sheetData>
